--- a/contact.xlsx
+++ b/contact.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="615" windowWidth="28455" windowHeight="12465"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+  <si>
+    <t>sad@gmail.com</t>
+  </si>
+  <si>
+    <t>adads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sdaadasd</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -31,32 +47,31 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -346,16 +361,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/contact.xlsx
+++ b/contact.xlsx
@@ -365,7 +365,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,6 +600,54 @@
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -365,7 +365,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,6 +648,14 @@
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -15,15 +15,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>sad@gmail.com</t>
-  </si>
-  <si>
-    <t>adads</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sdaadasd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>jayant.18je0381@ece.iitism.ac.in</t>
+  </si>
+  <si>
+    <t>Jayant Anand</t>
+  </si>
+  <si>
+    <t>18JE0381_ECE_assignment_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nmn k</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kubk</t>
+  </si>
+  <si>
+    <t>knlknkl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> det</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>IIT ISM DHANBAD</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>jkbkb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jkkb</t>
+  </si>
+  <si>
+    <t>jkkb</t>
+  </si>
+  <si>
+    <t>jvjh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kjbkjb
+</t>
+  </si>
+  <si>
+    <t>10-25</t>
   </si>
 </sst>
 </file>
@@ -365,71 +408,151 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="32.85546875" customWidth="true" style="0"/>
+    <col min="3" max="3" width="40.85546875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="50.140625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34.42578125" customWidth="true" style="0"/>
+    <col min="6" max="6" width="23.5703125" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>8</v>
       </c>
@@ -442,8 +565,14 @@
       <c r="D8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>9</v>
       </c>
@@ -456,206 +585,80 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+      <c r="F12"/>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -408,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B10" sqref="B10"/>
@@ -660,6 +660,103 @@
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="E21"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -408,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B10" sqref="B10"/>
@@ -757,6 +757,46 @@
       <c r="C21"/>
       <c r="E21"/>
     </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="E26"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -408,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B10" sqref="B10"/>
@@ -797,6 +797,46 @@
       <c r="C26"/>
       <c r="E26"/>
     </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="E31"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>jayant.18je0381@ece.iitism.ac.in</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>10-25</t>
+  </si>
+  <si>
+    <t>eqw@gmail.com</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qwe</t>
+  </si>
+  <si>
+    <t>jayantanand00@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ads</t>
   </si>
 </sst>
 </file>
@@ -408,7 +423,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B10" sqref="B10"/>
@@ -837,6 +852,360 @@
       <c r="C31"/>
       <c r="E31"/>
     </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -423,7 +423,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B10" sqref="B10"/>
@@ -1206,6 +1206,54 @@
       <c r="C73"/>
       <c r="D73"/>
     </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>jayant.18je0381@ece.iitism.ac.in</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t xml:space="preserve"> ads</t>
+  </si>
+  <si>
+    <t>saddas@sfasd</t>
+  </si>
+  <si>
+    <t>sada das</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> asd asdq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -423,7 +435,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B10" sqref="B10"/>
@@ -1254,6 +1266,98 @@
       <c r="C79"/>
       <c r="D79"/>
     </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -435,7 +435,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B10" sqref="B10"/>
@@ -1358,6 +1358,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -435,7 +435,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B10" sqref="B10"/>
@@ -1374,6 +1374,22 @@
       <c r="C91"/>
       <c r="D91"/>
     </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
